--- a/biology/Médecine/Groupe_hospitalier_du_Havre/Groupe_hospitalier_du_Havre.xlsx
+++ b/biology/Médecine/Groupe_hospitalier_du_Havre/Groupe_hospitalier_du_Havre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Groupe hospitalier du Havre (GHH) est un hôpital situé au Havre.
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,9 +554,11 @@
           <t>Sites du Groupe hospitalier du Havre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il regroupe 8 établissements situés au Havre et à Montivilliers[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il regroupe 8 établissements situés au Havre et à Montivilliers.
 Hôpital Jacques Monod (787 places)
 Site le plus important du GHH, il regroupe un grand nombre de services de soins en médecine, chirurgie et obstétrique. Les services logistiques (restauration, blanchisserie, magasin), la plus grande part des services techniques et administratifs se trouvent sur le site Monod.
 L'hôpital Pierre Janet compte plusieurs pavillons d'hospitalisation en santé mentale. Il constitue, avec plusieurs structures extra hospitalières en psychiatrie (CMP, CATTP) le pôle de psychiatrie du GHH.
